--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -21,6 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>YSCGD</author>
     <author>作者</author>
   </authors>
   <commentList>
@@ -28,25 +29,29 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="I2")</t>
+jx:area(lastCell="I3")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="I2")</t>
+jx:each(items="reportList" var="obj" lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -55,68 +60,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>${obj.branchName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.areaName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalSaleNum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalNum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.price}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalLineAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalLineSaleNum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺销售排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销额/元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总订单数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单价/元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上销额/元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上销量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>机构名称</t>
-  </si>
-  <si>
-    <t>${obj.branchName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域名称</t>
-  </si>
-  <si>
-    <t>${obj.areaName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销额/元</t>
-  </si>
-  <si>
-    <t>${obj.totalAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销量</t>
-  </si>
-  <si>
-    <t>${obj.totalSaleNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总订单数</t>
-  </si>
-  <si>
-    <t>${obj.totalNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客单价/元</t>
-  </si>
-  <si>
-    <t>${obj.price}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上销额/元</t>
-  </si>
-  <si>
-    <t>${obj.totalLineAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上销量</t>
-  </si>
-  <si>
-    <t>${obj.totalLineSaleNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>${obj.rowNo}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +142,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +157,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -145,23 +168,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,15 +206,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,83 +552,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -74,6 +74,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>${obj.price}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalLineAmount}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺销售排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销额/元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总订单数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客单价/元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上销额/元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上销量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.totalSaleNum}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,59 +134,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.price}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.totalLineAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.totalLineSaleNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.rowNo}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺销售排名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销额/元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总订单数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客单价/元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上销额/元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上销量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -142,11 +142,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +180,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -225,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,20 +239,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,92 +558,92 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
     <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22845" windowHeight="5835"/>
+    <workbookView windowWidth="27540" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <oleSize ref="A1:I3"/>
 </workbook>
 </file>
 
@@ -25,15 +21,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -41,13 +35,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -60,92 +53,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+  <si>
+    <t>店铺销售排名</t>
+  </si>
+  <si>
+    <t>机构名称</t>
+  </si>
+  <si>
+    <t>所在区域</t>
+  </si>
+  <si>
+    <t>销额/元</t>
+  </si>
+  <si>
+    <t>销量</t>
+  </si>
+  <si>
+    <t>总订单数</t>
+  </si>
+  <si>
+    <t>客单价/元</t>
+  </si>
+  <si>
+    <t>线上销额/元</t>
+  </si>
+  <si>
+    <t>线上销量</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
   <si>
     <t>${obj.branchName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${obj.areaName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${obj.totalAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalSaleNum}</t>
+  </si>
+  <si>
+    <t>${obj.totalNum}</t>
   </si>
   <si>
     <t>${obj.price}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${obj.totalLineAmount}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalLineSaleNum}</t>
   </si>
   <si>
     <t>${obj.rowNo}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺销售排名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在区域</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销额/元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总订单数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客单价/元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上销额/元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上销量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.totalSaleNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.totalNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.totalLineSaleNum}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,43 +132,184 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,12 +318,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -227,44 +532,328 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -311,7 +900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,7 +935,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,105 +1143,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="2"/>
+    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="12.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="L3")</t>
+jx:area(lastCell="L4")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>店铺销售排名</t>
   </si>
@@ -137,6 +137,37 @@
   </si>
   <si>
     <t>${obj.grossProfitRate}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(D3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(E3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(F3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(G3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(I3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(J3)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(K3)]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -144,8 +175,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -247,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -267,16 +299,19 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -285,6 +320,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -304,7 +407,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -339,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,7 +477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -594,27 +697,27 @@
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="9" customWidth="1"/>
     <col min="9" max="11" width="12.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -632,13 +735,13 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -676,7 +779,7 @@
       <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -691,6 +794,36 @@
       <c r="L3" s="5" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -159,6 +161,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -166,6 +169,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -173,6 +177,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -180,28 +185,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -267,9 +277,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,6 +284,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -339,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,7 +384,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +596,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -594,27 +604,27 @@
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="9" customWidth="1"/>
     <col min="9" max="11" width="12.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -632,13 +642,13 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -676,7 +686,7 @@
       <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="6" t="s">

--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,11 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="L4")</t>
+jx:area(lastCell="L3")</t>
         </r>
       </text>
     </comment>
@@ -45,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>店铺销售排名</t>
   </si>
@@ -137,37 +139,6 @@
   </si>
   <si>
     <t>${obj.grossProfitRate}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(D3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(E3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(F3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(J3)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(K3)]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -175,9 +146,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -191,6 +161,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -198,6 +169,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -205,6 +177,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -212,28 +185,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -279,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -309,9 +287,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -320,74 +295,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -407,7 +314,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -686,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -795,36 +702,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>

--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -36,7 +36,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="L3")</t>
+jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -50,7 +50,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:each(items="reportList" var="obj" lastCell="L3")</t>
+jx:each(items="reportList" var="obj" lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>店铺销售排名</t>
   </si>
@@ -70,75 +70,115 @@
     <t>所在区域</t>
   </si>
   <si>
-    <t>销额/元</t>
+    <t>总订单数</t>
+  </si>
+  <si>
+    <t>客单价/元</t>
+  </si>
+  <si>
+    <t>线上销量</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>${obj.branchName}</t>
+  </si>
+  <si>
+    <t>${obj.areaName}</t>
+  </si>
+  <si>
+    <t>${obj.totalAmount}</t>
+  </si>
+  <si>
+    <t>${obj.totalSaleNum}</t>
+  </si>
+  <si>
+    <t>${obj.totalNum}</t>
+  </si>
+  <si>
+    <t>${obj.price}</t>
+  </si>
+  <si>
+    <t>${obj.totalLineAmount}</t>
+  </si>
+  <si>
+    <t>${obj.totalLineSaleNum}</t>
+  </si>
+  <si>
+    <t>${obj.rowNo}</t>
+  </si>
+  <si>
+    <t>成本金额</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.costAmount}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.grossProfit}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.grossProfitRate}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>总销额/元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>销量</t>
-  </si>
-  <si>
-    <t>总订单数</t>
-  </si>
-  <si>
-    <t>客单价/元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均客单数</t>
+  </si>
+  <si>
+    <t>线下客单数</t>
+  </si>
+  <si>
+    <t>线上客单数</t>
+  </si>
+  <si>
+    <t>线上客单价/元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>线上销额/元</t>
-  </si>
-  <si>
-    <t>线上销量</t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>${obj.branchName}</t>
-  </si>
-  <si>
-    <t>${obj.areaName}</t>
-  </si>
-  <si>
-    <t>${obj.totalAmount}</t>
-  </si>
-  <si>
-    <t>${obj.totalSaleNum}</t>
-  </si>
-  <si>
-    <t>${obj.totalNum}</t>
-  </si>
-  <si>
-    <t>${obj.price}</t>
-  </si>
-  <si>
-    <t>${obj.totalLineAmount}</t>
-  </si>
-  <si>
-    <t>${obj.totalLineSaleNum}</t>
-  </si>
-  <si>
-    <t>${obj.rowNo}</t>
-  </si>
-  <si>
-    <t>成本金额</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛利率</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.costAmount}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.grossProfit}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.grossProfitRate}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下客单价/元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.dayAvgNum}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalOffLineNum}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.offLinePrice}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.totalLineNum}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.linePrice}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -146,8 +186,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -257,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -288,6 +329,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -605,12 +658,12 @@
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="7" width="12.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="9" customWidth="1"/>
-    <col min="9" max="11" width="12.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="3"/>
+    <col min="9" max="16" width="12.625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -625,86 +678,121 @@
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="O2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="J3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="N3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="O3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yangyq02\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,9 +186,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -298,14 +297,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -315,32 +311,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,99 +639,99 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="9" customWidth="1"/>
-    <col min="9" max="16" width="12.625" style="14" customWidth="1"/>
+    <col min="3" max="7" width="12.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="11" customWidth="1"/>
+    <col min="9" max="16" width="12.625" style="7" customWidth="1"/>
     <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.875" style="3"/>
+    <col min="18" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -759,34 +749,34 @@
       <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -796,7 +786,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -36,7 +36,7 @@
             <charset val="134"/>
           </rPr>
           <t>YSCGD:
-jx:area(lastCell="Q3")</t>
+jx:area(lastCell="Q4")</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>店铺销售排名</t>
   </si>
@@ -179,6 +179,54 @@
   </si>
   <si>
     <t>${obj.linePrice}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(D3:D3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(E3:E3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(F3:F3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(C3:C3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3:H3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I3:I3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(K3:K3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(M3:M3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(N3:N3+0)]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(O3:O3+0)]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -186,8 +234,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -297,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -311,25 +360,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,43 +691,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="C3" sqref="C3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="12.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="11" customWidth="1"/>
-    <col min="9" max="16" width="12.625" style="7" customWidth="1"/>
+    <col min="3" max="7" width="12.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="8" customWidth="1"/>
+    <col min="9" max="16" width="12.625" style="6" customWidth="1"/>
     <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -687,7 +742,7 @@
       <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -699,13 +754,13 @@
       <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -714,13 +769,13 @@
       <c r="M2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
@@ -734,51 +789,94 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="12" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -378,14 +378,14 @@
     <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,7 +694,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:Q3"/>
+      <selection activeCell="B4" sqref="B4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -709,25 +709,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -789,49 +789,49 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -839,43 +839,43 @@
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="10"/>
+      <c r="P4" s="13"/>
       <c r="Q4" s="10"/>
     </row>
   </sheetData>

--- a/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
+++ b/src/main/resources/template/excel/export/TradeOrderCountReport.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>店铺销售排名</t>
   </si>
@@ -179,54 +179,6 @@
   </si>
   <si>
     <t>${obj.linePrice}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计：</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(D3:D3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(E3:E3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(F3:F3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(C3:C3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(G3:G3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(H3:H3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(I3:I3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(K3:K3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(M3:M3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(N3:N3+0)]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(O3:O3+0)]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -372,20 +324,11 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -702,32 +645,32 @@
     <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="7" width="12.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14" style="8" customWidth="1"/>
     <col min="9" max="16" width="12.625" style="6" customWidth="1"/>
     <col min="17" max="17" width="12.625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -789,94 +732,51 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
